--- a/Study 3/results/O.z_ml_results.xlsx
+++ b/Study 3/results/O.z_ml_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">rowname</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t xml:space="preserve">p.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci.lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci.upper</t>
   </si>
   <si>
     <t xml:space="preserve">r_xy1y2</t>
@@ -455,10 +461,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0783274571771297</v>
@@ -475,10 +487,16 @@
       <c r="F2" t="n">
         <v>0.57400798268465</v>
       </c>
+      <c r="G2" t="n">
+        <v>-0.357047293664637</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.200392379310378</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
         <v>0.102321448969592</v>
@@ -495,10 +513,16 @@
       <c r="F3" t="n">
         <v>0.000232973453348183</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.0508901659229239</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.15375273201626</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>0.11010887591041</v>
@@ -515,10 +539,16 @@
       <c r="F4" t="n">
         <v>0.00213707830197367</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.0420926922049491</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.178125059615871</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>0.448219060181006</v>
@@ -535,10 +565,16 @@
       <c r="F5" t="n">
         <v>0.000232973453348183</v>
       </c>
+      <c r="G5" t="n">
+        <v>0.22292434843458</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.673513771927432</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>0.383633996892081</v>
@@ -555,10 +591,16 @@
       <c r="F6" t="n">
         <v>0.00213707830197367</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.146656548956796</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.620611444827367</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>0.397133591671888</v>
@@ -575,10 +617,16 @@
       <c r="F7" t="n">
         <v>0.000232973453348183</v>
       </c>
+      <c r="G7" t="n">
+        <v>0.197516694468969</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.596750488874806</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>0.427358425878531</v>
@@ -595,10 +643,16 @@
       <c r="F8" t="n">
         <v>0.00213707830197367</v>
       </c>
+      <c r="G8" t="n">
+        <v>0.163371631332728</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.691345220424335</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>0.106215162440001</v>
@@ -615,10 +669,16 @@
       <c r="F9" t="n">
         <v>0.000698841442986326</v>
       </c>
+      <c r="G9" t="n">
+        <v>0.047527959665029</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.164902365214973</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
         <v>-0.1799677187219</v>
@@ -635,10 +695,16 @@
       <c r="F10" t="n">
         <v>0.0000000000000000602425342875202</v>
       </c>
+      <c r="G10" t="n">
+        <v>-0.207690556477201</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.152244880966598</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>-0.00778742694081792</v>
@@ -655,10 +721,16 @@
       <c r="F11" t="n">
         <v>0.57400798268465</v>
       </c>
+      <c r="G11" t="n">
+        <v>-0.0354981485935685</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0199232947119327</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>-0.0364192046715905</v>
@@ -667,10 +739,12 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
         <v>0.0781555133444451</v>
@@ -679,10 +753,12 @@
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>-23.1100362275755</v>
@@ -691,10 +767,12 @@
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
         <v>-0.098427735499183</v>
@@ -711,10 +789,16 @@
       <c r="F15" t="n">
         <v>0.000129546767738311</v>
       </c>
+      <c r="G15" t="n">
+        <v>-0.145659276928672</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.0511961940696945</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
         <v>-0.382021174568566</v>
@@ -731,10 +815,16 @@
       <c r="F16" t="n">
         <v>0.000129546767738311</v>
       </c>
+      <c r="G16" t="n">
+        <v>-0.565337887505915</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.198704461631217</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
         <v>-0.480511591825468</v>
@@ -751,10 +841,16 @@
       <c r="F17" t="n">
         <v>0.000139526180328741</v>
       </c>
+      <c r="G17" t="n">
+        <v>-0.712458927372385</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.248564256278552</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n">
         <v>-0.204642897939184</v>
@@ -771,10 +867,16 @@
       <c r="F18" t="n">
         <v>0.999883513273326</v>
       </c>
+      <c r="G18" t="n">
+        <v>-0.30750546403252</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.101780331845848</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="n">
         <v>-0.794267183343775</v>
@@ -791,10 +893,16 @@
       <c r="F19" t="n">
         <v>0.999883513273326</v>
       </c>
+      <c r="G19" t="n">
+        <v>-1.19350097774961</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.395033388937938</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" t="n">
         <v>-0.896438120362012</v>
@@ -811,10 +919,16 @@
       <c r="F20" t="n">
         <v>0.999883513273326</v>
       </c>
+      <c r="G20" t="n">
+        <v>-1.34702754385486</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.44584869686916</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="n">
         <v>0.00778742694081792</v>
@@ -831,10 +945,16 @@
       <c r="F21" t="n">
         <v>0.287003991342325</v>
       </c>
+      <c r="G21" t="n">
+        <v>-0.0199232947119327</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0354981485935685</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="n">
         <v>0.212430324880002</v>
@@ -851,10 +971,16 @@
       <c r="F22" t="n">
         <v>0.000349420721493164</v>
       </c>
+      <c r="G22" t="n">
+        <v>0.0950559193300581</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.329804730429946</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n">
         <v>0.0302248342066434</v>
@@ -871,10 +997,16 @@
       <c r="F23" t="n">
         <v>0.287003991342325</v>
       </c>
+      <c r="G23" t="n">
+        <v>-0.0773269892731749</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.137776657686462</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n">
         <v>0.824492017550419</v>
@@ -891,10 +1023,16 @@
       <c r="F24" t="n">
         <v>0.000349420721493164</v>
       </c>
+      <c r="G24" t="n">
+        <v>0.368934363551065</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.28004967154977</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="n">
         <v>-0.0645850632889247</v>
@@ -911,10 +1049,16 @@
       <c r="F25" t="n">
         <v>0.927672127527211</v>
       </c>
+      <c r="G25" t="n">
+        <v>-0.152325749286223</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0231556227083734</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" t="n">
         <v>0.831853057073087</v>
@@ -930,6 +1074,12 @@
       </c>
       <c r="F26" t="n">
         <v>0.000306060492791088</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.37775870061599</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.28594741353018</v>
       </c>
     </row>
   </sheetData>
